--- a/Proyecto.xlsx
+++ b/Proyecto.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\misitio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA492E3-29FB-440A-B9E5-E37E66E2103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cuadro de diálogo1" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,14 +26,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,6 +78,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/dialogsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<dialogsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x14ac xr xr2 xr3 xr6" xr6:uid="{9C4EA0B6-DD0C-4912-BB20-12C32393295F}">
+  <sheetViews>
+    <sheetView showRowColHeaders="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1" defaultRowHeight="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetProtection sheet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</dialogsheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,12 +354,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
